--- a/V3/CP4P_Final_Assignment_Plan_Group05.xlsx
+++ b/V3/CP4P_Final_Assignment_Plan_Group05.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheba/CPR101NAA_BB05/V2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheba/CPR101NAA_BB05/V3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D339548-6FBE-354E-A360-EDE4E07709A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE0DC36-8B23-6F46-B997-92EE918FF067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <r>
       <rPr>
@@ -1480,9 +1480,6 @@
   </si>
   <si>
     <t>In MS Team Channel, select any file you would like reviewed and send a message @instructor to comment on that file.</t>
-  </si>
-  <si>
-    <t>TO DO</t>
   </si>
   <si>
     <t>refine plan, update DONE items with actual hours. Version 2: edit artefacts and request review</t>
@@ -2592,8 +2589,8 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R7" sqref="R7"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2887,10 +2884,10 @@
         <v>43</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5" s="17">
         <v>1.5</v>
@@ -2906,10 +2903,10 @@
         <v>43</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S5" s="17">
         <v>1.5</v>
@@ -2922,13 +2919,13 @@
 Apr.19</v>
       </c>
       <c r="U5" s="18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="V5" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W5" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X5" s="17">
         <v>1.5</v>
@@ -2941,18 +2938,18 @@
 Apr.22</v>
       </c>
       <c r="Z5" s="18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="160" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C6" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="D6" s="21">
         <v>2</v>
@@ -2966,10 +2963,10 @@
         <v>43</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="21">
         <v>10</v>
@@ -2981,13 +2978,13 @@
 Apr.6</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N6" s="21">
         <v>10</v>
@@ -3000,28 +2997,28 @@
 Apr.13</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S6" s="21">
         <v>10</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="V6" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W6" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X6" s="21">
         <v>12</v>
@@ -3034,18 +3031,18 @@
 Apr.23</v>
       </c>
       <c r="Z6" s="18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="219" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="C7" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>65</v>
       </c>
       <c r="D7" s="21">
         <v>2</v>
@@ -3059,10 +3056,10 @@
         <v>43</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" s="21">
         <v>10</v>
@@ -3073,13 +3070,13 @@
 Apr.6</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N7" s="21">
         <v>10</v>
@@ -3090,28 +3087,28 @@
 Apr.13</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S7" s="21">
         <v>10</v>
       </c>
       <c r="T7" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="V7" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W7" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X7" s="21">
         <v>12</v>
@@ -3122,7 +3119,7 @@
 Apr.23</v>
       </c>
       <c r="Z7" s="18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
